--- a/target/classes/sql/동영상.xlsx
+++ b/target/classes/sql/동영상.xlsx
@@ -15,20 +15,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <x:si>
+    <x:t>piano concerto</x:t>
+  </x:si>
   <x:si>
     <x:t>video_length</x:t>
   </x:si>
   <x:si>
-    <x:t>piano concerto</x:t>
+    <x:t>oSmUI3m2kLk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03:08:22</x:t>
   </x:si>
   <x:si>
     <x:t>video_src</x:t>
   </x:si>
   <x:si>
-    <x:t>oSmUI3m2kLk</x:t>
-  </x:si>
-  <x:si>
     <x:t>l0IoPQM1HlU</x:t>
   </x:si>
   <x:si>
@@ -38,19 +41,25 @@
     <x:t>00:14:16</x:t>
   </x:si>
   <x:si>
-    <x:t>03:08:22</x:t>
+    <x:t>00:08:21</x:t>
   </x:si>
   <x:si>
     <x:t>video_name</x:t>
   </x:si>
   <x:si>
-    <x:t>00:08:21</x:t>
+    <x:t>fKQFTagEl4I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01:06:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>forest</x:t>
   </x:si>
   <x:si>
     <x:t>game</x:t>
   </x:si>
   <x:si>
-    <x:t>forest</x:t>
+    <x:t>다비치</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -197,7 +206,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -280,7 +288,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -315,7 +322,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -360,7 +366,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -404,7 +409,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -465,7 +469,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -486,7 +489,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -517,7 +519,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -825,10 +826,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C4"/>
+  <x:dimension ref="A1:C5"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="C2" activeCellId="0" sqref="C2:C2"/>
+      <x:selection activeCell="F8" activeCellId="0" sqref="F8:F8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -840,50 +841,61 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>9</x:v>
+      <x:c r="C5" s="1" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -899,7 +911,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -915,7 +927,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>